--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3622946666666667</v>
+        <v>0.3515596666666667</v>
       </c>
       <c r="H2">
-        <v>1.086884</v>
+        <v>1.054679</v>
       </c>
       <c r="I2">
-        <v>0.1180795371744169</v>
+        <v>0.1164513978807345</v>
       </c>
       <c r="J2">
-        <v>0.1180795371744169</v>
+        <v>0.1164513978807345</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.060984333333334</v>
+        <v>0.1647113333333333</v>
       </c>
       <c r="N2">
-        <v>3.182953</v>
+        <v>0.494134</v>
       </c>
       <c r="O2">
-        <v>0.4815240590097311</v>
+        <v>0.08227437957964198</v>
       </c>
       <c r="P2">
-        <v>0.4815240590097311</v>
+        <v>0.08227437957964198</v>
       </c>
       <c r="Q2">
-        <v>0.3843889653835556</v>
+        <v>0.0579058614428889</v>
       </c>
       <c r="R2">
-        <v>3.459500688452</v>
+        <v>0.5211527529860001</v>
       </c>
       <c r="S2">
-        <v>0.05685813802621565</v>
+        <v>0.009580966511819463</v>
       </c>
       <c r="T2">
-        <v>0.05685813802621564</v>
+        <v>0.009580966511819465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3622946666666667</v>
+        <v>0.3515596666666667</v>
       </c>
       <c r="H3">
-        <v>1.086884</v>
+        <v>1.054679</v>
       </c>
       <c r="I3">
-        <v>0.1180795371744169</v>
+        <v>0.1164513978807345</v>
       </c>
       <c r="J3">
-        <v>0.1180795371744169</v>
+        <v>0.1164513978807345</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7402906666666667</v>
+        <v>1.060984333333334</v>
       </c>
       <c r="N3">
-        <v>2.220872</v>
+        <v>3.182953</v>
       </c>
       <c r="O3">
-        <v>0.3359783509153479</v>
+        <v>0.5299685577316279</v>
       </c>
       <c r="P3">
-        <v>0.3359783509153479</v>
+        <v>0.5299685577316279</v>
       </c>
       <c r="Q3">
-        <v>0.2682033603164444</v>
+        <v>0.3729992985652223</v>
       </c>
       <c r="R3">
-        <v>2.413830242848</v>
+        <v>3.356993687087001</v>
       </c>
       <c r="S3">
-        <v>0.0396721681767081</v>
+        <v>0.0617155793806848</v>
       </c>
       <c r="T3">
-        <v>0.0396721681767081</v>
+        <v>0.0617155793806848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3622946666666667</v>
+        <v>0.3515596666666667</v>
       </c>
       <c r="H4">
-        <v>1.086884</v>
+        <v>1.054679</v>
       </c>
       <c r="I4">
-        <v>0.1180795371744169</v>
+        <v>0.1164513978807345</v>
       </c>
       <c r="J4">
-        <v>0.1180795371744169</v>
+        <v>0.1164513978807345</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2904586666666666</v>
+        <v>0.518498</v>
       </c>
       <c r="N4">
-        <v>0.8713759999999999</v>
+        <v>1.555494</v>
       </c>
       <c r="O4">
-        <v>0.1318236582329878</v>
+        <v>0.2589931148025751</v>
       </c>
       <c r="P4">
-        <v>0.1318236582329879</v>
+        <v>0.258993114802575</v>
       </c>
       <c r="Q4">
-        <v>0.1052316258204444</v>
+        <v>0.1822829840473334</v>
       </c>
       <c r="R4">
-        <v>0.9470846323839999</v>
+        <v>1.640546856426</v>
       </c>
       <c r="S4">
-        <v>0.01556567655278971</v>
+        <v>0.03016011026024541</v>
       </c>
       <c r="T4">
-        <v>0.01556567655278971</v>
+        <v>0.03016011026024541</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3622946666666667</v>
+        <v>0.3515596666666667</v>
       </c>
       <c r="H5">
-        <v>1.086884</v>
+        <v>1.054679</v>
       </c>
       <c r="I5">
-        <v>0.1180795371744169</v>
+        <v>0.1164513978807345</v>
       </c>
       <c r="J5">
-        <v>0.1180795371744169</v>
+        <v>0.1164513978807345</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1116543333333333</v>
+        <v>0.2577823333333333</v>
       </c>
       <c r="N5">
-        <v>0.334963</v>
+        <v>0.773347</v>
       </c>
       <c r="O5">
-        <v>0.05067393184193312</v>
+        <v>0.1287639478861551</v>
       </c>
       <c r="P5">
-        <v>0.05067393184193312</v>
+        <v>0.1287639478861551</v>
       </c>
       <c r="Q5">
-        <v>0.04045176947688889</v>
+        <v>0.09062587117922223</v>
       </c>
       <c r="R5">
-        <v>0.364065925292</v>
+        <v>0.8156328406130001</v>
       </c>
       <c r="S5">
-        <v>0.005983554418703409</v>
+        <v>0.01499474172798481</v>
       </c>
       <c r="T5">
-        <v>0.005983554418703408</v>
+        <v>0.01499474172798481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>1.948588</v>
       </c>
       <c r="I6">
-        <v>0.21169542396762</v>
+        <v>0.2151515261929218</v>
       </c>
       <c r="J6">
-        <v>0.2116954239676199</v>
+        <v>0.2151515261929219</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.060984333333334</v>
+        <v>0.1647113333333333</v>
       </c>
       <c r="N6">
-        <v>3.182953</v>
+        <v>0.494134</v>
       </c>
       <c r="O6">
-        <v>0.4815240590097311</v>
+        <v>0.08227437957964198</v>
       </c>
       <c r="P6">
-        <v>0.4815240590097311</v>
+        <v>0.08227437957964198</v>
       </c>
       <c r="Q6">
-        <v>0.6891404467071112</v>
+        <v>0.1069848425324444</v>
       </c>
       <c r="R6">
-        <v>6.202264020364001</v>
+        <v>0.9628635827919999</v>
       </c>
       <c r="S6">
-        <v>0.1019364398226743</v>
+        <v>0.01770145833313573</v>
       </c>
       <c r="T6">
-        <v>0.1019364398226743</v>
+        <v>0.01770145833313574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>1.948588</v>
       </c>
       <c r="I7">
-        <v>0.21169542396762</v>
+        <v>0.2151515261929218</v>
       </c>
       <c r="J7">
-        <v>0.2116954239676199</v>
+        <v>0.2151515261929219</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7402906666666667</v>
+        <v>1.060984333333334</v>
       </c>
       <c r="N7">
-        <v>2.220872</v>
+        <v>3.182953</v>
       </c>
       <c r="O7">
-        <v>0.3359783509153479</v>
+        <v>0.5299685577316279</v>
       </c>
       <c r="P7">
-        <v>0.3359783509153479</v>
+        <v>0.5299685577316279</v>
       </c>
       <c r="Q7">
-        <v>0.4808405031928888</v>
+        <v>0.6891404467071112</v>
       </c>
       <c r="R7">
-        <v>4.327564528736</v>
+        <v>6.202264020364001</v>
       </c>
       <c r="S7">
-        <v>0.07112507944096637</v>
+        <v>0.1140235440302213</v>
       </c>
       <c r="T7">
-        <v>0.07112507944096637</v>
+        <v>0.1140235440302214</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>1.948588</v>
       </c>
       <c r="I8">
-        <v>0.21169542396762</v>
+        <v>0.2151515261929218</v>
       </c>
       <c r="J8">
-        <v>0.2116954239676199</v>
+        <v>0.2151515261929219</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2904586666666666</v>
+        <v>0.518498</v>
       </c>
       <c r="N8">
-        <v>0.8713759999999999</v>
+        <v>1.555494</v>
       </c>
       <c r="O8">
-        <v>0.1318236582329878</v>
+        <v>0.2589931148025751</v>
       </c>
       <c r="P8">
-        <v>0.1318236582329879</v>
+        <v>0.258993114802575</v>
       </c>
       <c r="Q8">
-        <v>0.1886614241208888</v>
+        <v>0.3367796602746667</v>
       </c>
       <c r="R8">
-        <v>1.697952817088</v>
+        <v>3.031016942472</v>
       </c>
       <c r="S8">
-        <v>0.02790646521859499</v>
+        <v>0.05572276392323264</v>
       </c>
       <c r="T8">
-        <v>0.02790646521859499</v>
+        <v>0.05572276392323264</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>1.948588</v>
       </c>
       <c r="I9">
-        <v>0.21169542396762</v>
+        <v>0.2151515261929218</v>
       </c>
       <c r="J9">
-        <v>0.2116954239676199</v>
+        <v>0.2151515261929219</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1116543333333333</v>
+        <v>0.2577823333333333</v>
       </c>
       <c r="N9">
-        <v>0.334963</v>
+        <v>0.773347</v>
       </c>
       <c r="O9">
-        <v>0.05067393184193312</v>
+        <v>0.1287639478861551</v>
       </c>
       <c r="P9">
-        <v>0.05067393184193312</v>
+        <v>0.1287639478861551</v>
       </c>
       <c r="Q9">
-        <v>0.07252276469377777</v>
+        <v>0.1674371871151111</v>
       </c>
       <c r="R9">
-        <v>0.652704882244</v>
+        <v>1.506934684036</v>
       </c>
       <c r="S9">
-        <v>0.01072743948538431</v>
+        <v>0.02770375990633213</v>
       </c>
       <c r="T9">
-        <v>0.01072743948538431</v>
+        <v>0.02770375990633213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5152666666666667</v>
+        <v>0.5195299999999999</v>
       </c>
       <c r="H10">
-        <v>1.5458</v>
+        <v>1.55859</v>
       </c>
       <c r="I10">
-        <v>0.1679363653933756</v>
+        <v>0.1720902608499211</v>
       </c>
       <c r="J10">
-        <v>0.1679363653933755</v>
+        <v>0.1720902608499211</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.060984333333334</v>
+        <v>0.1647113333333333</v>
       </c>
       <c r="N10">
-        <v>3.182953</v>
+        <v>0.494134</v>
       </c>
       <c r="O10">
-        <v>0.4815240590097311</v>
+        <v>0.08227437957964198</v>
       </c>
       <c r="P10">
-        <v>0.4815240590097311</v>
+        <v>0.08227437957964198</v>
       </c>
       <c r="Q10">
-        <v>0.5466898608222223</v>
+        <v>0.08557247900666665</v>
       </c>
       <c r="R10">
-        <v>4.9202087474</v>
+        <v>0.7701523110599999</v>
       </c>
       <c r="S10">
-        <v>0.08086540031955955</v>
+        <v>0.01415861944312601</v>
       </c>
       <c r="T10">
-        <v>0.08086540031955952</v>
+        <v>0.01415861944312601</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5152666666666667</v>
+        <v>0.5195299999999999</v>
       </c>
       <c r="H11">
-        <v>1.5458</v>
+        <v>1.55859</v>
       </c>
       <c r="I11">
-        <v>0.1679363653933756</v>
+        <v>0.1720902608499211</v>
       </c>
       <c r="J11">
-        <v>0.1679363653933755</v>
+        <v>0.1720902608499211</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7402906666666667</v>
+        <v>1.060984333333334</v>
       </c>
       <c r="N11">
-        <v>2.220872</v>
+        <v>3.182953</v>
       </c>
       <c r="O11">
-        <v>0.3359783509153479</v>
+        <v>0.5299685577316279</v>
       </c>
       <c r="P11">
-        <v>0.3359783509153479</v>
+        <v>0.5299685577316279</v>
       </c>
       <c r="Q11">
-        <v>0.3814471041777778</v>
+        <v>0.5512131906966667</v>
       </c>
       <c r="R11">
-        <v>3.4330239376</v>
+        <v>4.96091871627</v>
       </c>
       <c r="S11">
-        <v>0.05642298310358363</v>
+        <v>0.09120242734229229</v>
       </c>
       <c r="T11">
-        <v>0.05642298310358362</v>
+        <v>0.09120242734229231</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5152666666666667</v>
+        <v>0.5195299999999999</v>
       </c>
       <c r="H12">
-        <v>1.5458</v>
+        <v>1.55859</v>
       </c>
       <c r="I12">
-        <v>0.1679363653933756</v>
+        <v>0.1720902608499211</v>
       </c>
       <c r="J12">
-        <v>0.1679363653933755</v>
+        <v>0.1720902608499211</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2904586666666666</v>
+        <v>0.518498</v>
       </c>
       <c r="N12">
-        <v>0.8713759999999999</v>
+        <v>1.555494</v>
       </c>
       <c r="O12">
-        <v>0.1318236582329878</v>
+        <v>0.2589931148025751</v>
       </c>
       <c r="P12">
-        <v>0.1318236582329879</v>
+        <v>0.258993114802575</v>
       </c>
       <c r="Q12">
-        <v>0.1496636689777777</v>
+        <v>0.26937526594</v>
       </c>
       <c r="R12">
-        <v>1.3469730208</v>
+        <v>2.42437739346</v>
       </c>
       <c r="S12">
-        <v>0.02213798603650651</v>
+        <v>0.0445701926847087</v>
       </c>
       <c r="T12">
-        <v>0.0221379860365065</v>
+        <v>0.0445701926847087</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5152666666666667</v>
+        <v>0.5195299999999999</v>
       </c>
       <c r="H13">
-        <v>1.5458</v>
+        <v>1.55859</v>
       </c>
       <c r="I13">
-        <v>0.1679363653933756</v>
+        <v>0.1720902608499211</v>
       </c>
       <c r="J13">
-        <v>0.1679363653933755</v>
+        <v>0.1720902608499211</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1116543333333333</v>
+        <v>0.2577823333333333</v>
       </c>
       <c r="N13">
-        <v>0.334963</v>
+        <v>0.773347</v>
       </c>
       <c r="O13">
-        <v>0.05067393184193312</v>
+        <v>0.1287639478861551</v>
       </c>
       <c r="P13">
-        <v>0.05067393184193312</v>
+        <v>0.1287639478861551</v>
       </c>
       <c r="Q13">
-        <v>0.05753175615555556</v>
+        <v>0.1339256556366666</v>
       </c>
       <c r="R13">
-        <v>0.5177858054</v>
+        <v>1.20533090073</v>
       </c>
       <c r="S13">
-        <v>0.008509995933725889</v>
+        <v>0.02215902137979408</v>
       </c>
       <c r="T13">
-        <v>0.008509995933725888</v>
+        <v>0.02215902137979409</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,46 +1287,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2810176666666667</v>
+        <v>0.08673866666666667</v>
       </c>
       <c r="H14">
-        <v>0.8430530000000001</v>
+        <v>0.260216</v>
       </c>
       <c r="I14">
-        <v>0.09158963426962186</v>
+        <v>0.02873150688591809</v>
       </c>
       <c r="J14">
-        <v>0.09158963426962186</v>
+        <v>0.02873150688591809</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.060984333333334</v>
+        <v>0.1647113333333333</v>
       </c>
       <c r="N14">
-        <v>3.182953</v>
+        <v>0.494134</v>
       </c>
       <c r="O14">
-        <v>0.4815240590097311</v>
+        <v>0.08227437957964198</v>
       </c>
       <c r="P14">
-        <v>0.4815240590097311</v>
+        <v>0.08227437957964198</v>
       </c>
       <c r="Q14">
-        <v>0.2981553417232223</v>
+        <v>0.01428684143822222</v>
       </c>
       <c r="R14">
-        <v>2.683398075509</v>
+        <v>0.128581572944</v>
       </c>
       <c r="S14">
-        <v>0.04410261245672509</v>
+        <v>0.002363866903427122</v>
       </c>
       <c r="T14">
-        <v>0.04410261245672509</v>
+        <v>0.002363866903427122</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,46 +1349,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2810176666666667</v>
+        <v>0.08673866666666667</v>
       </c>
       <c r="H15">
-        <v>0.8430530000000001</v>
+        <v>0.260216</v>
       </c>
       <c r="I15">
-        <v>0.09158963426962186</v>
+        <v>0.02873150688591809</v>
       </c>
       <c r="J15">
-        <v>0.09158963426962186</v>
+        <v>0.02873150688591809</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7402906666666667</v>
+        <v>1.060984333333334</v>
       </c>
       <c r="N15">
-        <v>2.220872</v>
+        <v>3.182953</v>
       </c>
       <c r="O15">
-        <v>0.3359783509153479</v>
+        <v>0.5299685577316279</v>
       </c>
       <c r="P15">
-        <v>0.3359783509153479</v>
+        <v>0.5299685577316279</v>
       </c>
       <c r="Q15">
-        <v>0.2080347558017778</v>
+        <v>0.09202836642755557</v>
       </c>
       <c r="R15">
-        <v>1.872312802216</v>
+        <v>0.8282552978480001</v>
       </c>
       <c r="S15">
-        <v>0.03077213428284738</v>
+        <v>0.01522679526578634</v>
       </c>
       <c r="T15">
-        <v>0.03077213428284739</v>
+        <v>0.01522679526578634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2810176666666667</v>
+        <v>0.08673866666666667</v>
       </c>
       <c r="H16">
-        <v>0.8430530000000001</v>
+        <v>0.260216</v>
       </c>
       <c r="I16">
-        <v>0.09158963426962186</v>
+        <v>0.02873150688591809</v>
       </c>
       <c r="J16">
-        <v>0.09158963426962186</v>
+        <v>0.02873150688591809</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2904586666666666</v>
+        <v>0.518498</v>
       </c>
       <c r="N16">
-        <v>0.8713759999999999</v>
+        <v>1.555494</v>
       </c>
       <c r="O16">
-        <v>0.1318236582329878</v>
+        <v>0.2589931148025751</v>
       </c>
       <c r="P16">
-        <v>0.1318236582329879</v>
+        <v>0.258993114802575</v>
       </c>
       <c r="Q16">
-        <v>0.08162401676977778</v>
+        <v>0.04497382518933334</v>
       </c>
       <c r="R16">
-        <v>0.734616150928</v>
+        <v>0.404764426704</v>
       </c>
       <c r="S16">
-        <v>0.01207368064564298</v>
+        <v>0.007441262461355559</v>
       </c>
       <c r="T16">
-        <v>0.01207368064564299</v>
+        <v>0.007441262461355558</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,46 +1473,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2810176666666667</v>
+        <v>0.08673866666666667</v>
       </c>
       <c r="H17">
-        <v>0.8430530000000001</v>
+        <v>0.260216</v>
       </c>
       <c r="I17">
-        <v>0.09158963426962186</v>
+        <v>0.02873150688591809</v>
       </c>
       <c r="J17">
-        <v>0.09158963426962186</v>
+        <v>0.02873150688591809</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1116543333333333</v>
+        <v>0.2577823333333333</v>
       </c>
       <c r="N17">
-        <v>0.334963</v>
+        <v>0.773347</v>
       </c>
       <c r="O17">
-        <v>0.05067393184193312</v>
+        <v>0.1287639478861551</v>
       </c>
       <c r="P17">
-        <v>0.05067393184193312</v>
+        <v>0.1287639478861551</v>
       </c>
       <c r="Q17">
-        <v>0.03137684022655556</v>
+        <v>0.02235969588355556</v>
       </c>
       <c r="R17">
-        <v>0.282391562039</v>
+        <v>0.201237262952</v>
       </c>
       <c r="S17">
-        <v>0.0046412068844064</v>
+        <v>0.003699582255349064</v>
       </c>
       <c r="T17">
-        <v>0.0046412068844064</v>
+        <v>0.003699582255349064</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8212836666666666</v>
+        <v>0.9306550000000001</v>
       </c>
       <c r="H18">
-        <v>2.463851</v>
+        <v>2.791965</v>
       </c>
       <c r="I18">
-        <v>0.2676738140838619</v>
+        <v>0.3082722108661354</v>
       </c>
       <c r="J18">
-        <v>0.2676738140838619</v>
+        <v>0.3082722108661354</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>1.060984333333334</v>
+        <v>0.1647113333333333</v>
       </c>
       <c r="N18">
-        <v>3.182953</v>
+        <v>0.494134</v>
       </c>
       <c r="O18">
-        <v>0.4815240590097311</v>
+        <v>0.08227437957964198</v>
       </c>
       <c r="P18">
-        <v>0.4815240590097311</v>
+        <v>0.08227437957964198</v>
       </c>
       <c r="Q18">
-        <v>0.871369103555889</v>
+        <v>0.1532894259233333</v>
       </c>
       <c r="R18">
-        <v>7.842321932003001</v>
+        <v>1.37960483331</v>
       </c>
       <c r="S18">
-        <v>0.1288913814482773</v>
+        <v>0.02536290489065586</v>
       </c>
       <c r="T18">
-        <v>0.1288913814482773</v>
+        <v>0.02536290489065586</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8212836666666666</v>
+        <v>0.9306550000000001</v>
       </c>
       <c r="H19">
-        <v>2.463851</v>
+        <v>2.791965</v>
       </c>
       <c r="I19">
-        <v>0.2676738140838619</v>
+        <v>0.3082722108661354</v>
       </c>
       <c r="J19">
-        <v>0.2676738140838619</v>
+        <v>0.3082722108661354</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7402906666666667</v>
+        <v>1.060984333333334</v>
       </c>
       <c r="N19">
-        <v>2.220872</v>
+        <v>3.182953</v>
       </c>
       <c r="O19">
-        <v>0.3359783509153479</v>
+        <v>0.5299685577316279</v>
       </c>
       <c r="P19">
-        <v>0.3359783509153479</v>
+        <v>0.5299685577316279</v>
       </c>
       <c r="Q19">
-        <v>0.6079886331191111</v>
+        <v>0.9874103747383336</v>
       </c>
       <c r="R19">
-        <v>5.471897698072</v>
+        <v>8.886693372645002</v>
       </c>
       <c r="S19">
-        <v>0.08993260663911735</v>
+        <v>0.1633745789814661</v>
       </c>
       <c r="T19">
-        <v>0.08993260663911737</v>
+        <v>0.1633745789814661</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8212836666666666</v>
+        <v>0.9306550000000001</v>
       </c>
       <c r="H20">
-        <v>2.463851</v>
+        <v>2.791965</v>
       </c>
       <c r="I20">
-        <v>0.2676738140838619</v>
+        <v>0.3082722108661354</v>
       </c>
       <c r="J20">
-        <v>0.2676738140838619</v>
+        <v>0.3082722108661354</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2904586666666666</v>
+        <v>0.518498</v>
       </c>
       <c r="N20">
-        <v>0.8713759999999999</v>
+        <v>1.555494</v>
       </c>
       <c r="O20">
-        <v>0.1318236582329878</v>
+        <v>0.2589931148025751</v>
       </c>
       <c r="P20">
-        <v>0.1318236582329879</v>
+        <v>0.258993114802575</v>
       </c>
       <c r="Q20">
-        <v>0.2385489587751111</v>
+        <v>0.4825427561900001</v>
       </c>
       <c r="R20">
-        <v>2.146940628976</v>
+        <v>4.34288480571</v>
       </c>
       <c r="S20">
-        <v>0.03528574138571134</v>
+        <v>0.07984038009929664</v>
       </c>
       <c r="T20">
-        <v>0.03528574138571135</v>
+        <v>0.07984038009929663</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8212836666666666</v>
+        <v>0.9306550000000001</v>
       </c>
       <c r="H21">
-        <v>2.463851</v>
+        <v>2.791965</v>
       </c>
       <c r="I21">
-        <v>0.2676738140838619</v>
+        <v>0.3082722108661354</v>
       </c>
       <c r="J21">
-        <v>0.2676738140838619</v>
+        <v>0.3082722108661354</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1116543333333333</v>
+        <v>0.2577823333333333</v>
       </c>
       <c r="N21">
-        <v>0.334963</v>
+        <v>0.773347</v>
       </c>
       <c r="O21">
-        <v>0.05067393184193312</v>
+        <v>0.1287639478861551</v>
       </c>
       <c r="P21">
-        <v>0.05067393184193312</v>
+        <v>0.1287639478861551</v>
       </c>
       <c r="Q21">
-        <v>0.09169988027922223</v>
+        <v>0.2399064174283334</v>
       </c>
       <c r="R21">
-        <v>0.8252989225130001</v>
+        <v>2.159157756855</v>
       </c>
       <c r="S21">
-        <v>0.0135640846107559</v>
+        <v>0.03969434689471689</v>
       </c>
       <c r="T21">
-        <v>0.0135640846107559</v>
+        <v>0.03969434689471689</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4388336666666666</v>
+        <v>0.4809263333333333</v>
       </c>
       <c r="H22">
-        <v>1.316501</v>
+        <v>1.442779</v>
       </c>
       <c r="I22">
-        <v>0.1430252251111039</v>
+        <v>0.159303097324369</v>
       </c>
       <c r="J22">
-        <v>0.1430252251111038</v>
+        <v>0.159303097324369</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.060984333333334</v>
+        <v>0.1647113333333333</v>
       </c>
       <c r="N22">
-        <v>3.182953</v>
+        <v>0.494134</v>
       </c>
       <c r="O22">
-        <v>0.4815240590097311</v>
+        <v>0.08227437957964198</v>
       </c>
       <c r="P22">
-        <v>0.4815240590097311</v>
+        <v>0.08227437957964198</v>
       </c>
       <c r="Q22">
-        <v>0.4655956452725556</v>
+        <v>0.07921401759844444</v>
       </c>
       <c r="R22">
-        <v>4.190360807453001</v>
+        <v>0.7129261583859999</v>
       </c>
       <c r="S22">
-        <v>0.06887008693627925</v>
+        <v>0.01310656349747778</v>
       </c>
       <c r="T22">
-        <v>0.06887008693627923</v>
+        <v>0.01310656349747779</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4388336666666666</v>
+        <v>0.4809263333333333</v>
       </c>
       <c r="H23">
-        <v>1.316501</v>
+        <v>1.442779</v>
       </c>
       <c r="I23">
-        <v>0.1430252251111039</v>
+        <v>0.159303097324369</v>
       </c>
       <c r="J23">
-        <v>0.1430252251111038</v>
+        <v>0.159303097324369</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7402906666666667</v>
+        <v>1.060984333333334</v>
       </c>
       <c r="N23">
-        <v>2.220872</v>
+        <v>3.182953</v>
       </c>
       <c r="O23">
-        <v>0.3359783509153479</v>
+        <v>0.5299685577316279</v>
       </c>
       <c r="P23">
-        <v>0.3359783509153479</v>
+        <v>0.5299685577316279</v>
       </c>
       <c r="Q23">
-        <v>0.3248644676524444</v>
+        <v>0.5102553051541112</v>
       </c>
       <c r="R23">
-        <v>2.923780208872</v>
+        <v>4.592297746387001</v>
       </c>
       <c r="S23">
-        <v>0.04805337927212508</v>
+        <v>0.08442563273117699</v>
       </c>
       <c r="T23">
-        <v>0.04805337927212508</v>
+        <v>0.08442563273117701</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4388336666666666</v>
+        <v>0.4809263333333333</v>
       </c>
       <c r="H24">
-        <v>1.316501</v>
+        <v>1.442779</v>
       </c>
       <c r="I24">
-        <v>0.1430252251111039</v>
+        <v>0.159303097324369</v>
       </c>
       <c r="J24">
-        <v>0.1430252251111038</v>
+        <v>0.159303097324369</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2904586666666666</v>
+        <v>0.518498</v>
       </c>
       <c r="N24">
-        <v>0.8713759999999999</v>
+        <v>1.555494</v>
       </c>
       <c r="O24">
-        <v>0.1318236582329878</v>
+        <v>0.2589931148025751</v>
       </c>
       <c r="P24">
-        <v>0.1318236582329879</v>
+        <v>0.258993114802575</v>
       </c>
       <c r="Q24">
-        <v>0.1274630417084444</v>
+        <v>0.2493593419806667</v>
       </c>
       <c r="R24">
-        <v>1.147167375376</v>
+        <v>2.244234077826</v>
       </c>
       <c r="S24">
-        <v>0.0188541083937423</v>
+        <v>0.0412584053737361</v>
       </c>
       <c r="T24">
-        <v>0.0188541083937423</v>
+        <v>0.0412584053737361</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4388336666666666</v>
+        <v>0.4809263333333333</v>
       </c>
       <c r="H25">
-        <v>1.316501</v>
+        <v>1.442779</v>
       </c>
       <c r="I25">
-        <v>0.1430252251111039</v>
+        <v>0.159303097324369</v>
       </c>
       <c r="J25">
-        <v>0.1430252251111038</v>
+        <v>0.159303097324369</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1116543333333333</v>
+        <v>0.2577823333333333</v>
       </c>
       <c r="N25">
-        <v>0.334963</v>
+        <v>0.773347</v>
       </c>
       <c r="O25">
-        <v>0.05067393184193312</v>
+        <v>0.1287639478861551</v>
       </c>
       <c r="P25">
-        <v>0.05067393184193312</v>
+        <v>0.1287639478861551</v>
       </c>
       <c r="Q25">
-        <v>0.04899768049588889</v>
+        <v>0.1239743123681111</v>
       </c>
       <c r="R25">
-        <v>0.440979124463</v>
+        <v>1.115768811313</v>
       </c>
       <c r="S25">
-        <v>0.007247650508957218</v>
+        <v>0.02051249572197815</v>
       </c>
       <c r="T25">
-        <v>0.007247650508957216</v>
+        <v>0.02051249572197816</v>
       </c>
     </row>
   </sheetData>
